--- a/2022/00-VKCT2022-template.xlsx
+++ b/2022/00-VKCT2022-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Předškoláci II" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ml.přípravka D" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Ml. přípravka D" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="St. přípravka D" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Ml. přípravka CH" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="St. přípravka CH" sheetId="6" state="visible" r:id="rId7"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="25">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mladší přípravka - chlapci (2014-2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve">Starší přípravka - chlapci (2012-2013)</t>
@@ -282,11 +279,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -473,9 +470,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -722,10 +719,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -918,9 +915,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1167,10 +1164,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -1214,7 +1211,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1366,9 +1365,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1615,10 +1614,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1635,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -1662,7 +1661,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1814,9 +1815,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2063,10 +2064,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2083,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2110,8 +2111,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2260,9 +2265,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2509,10 +2514,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2529,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2556,8 +2561,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2706,9 +2715,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2955,10 +2964,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2975,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3002,8 +3011,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3152,9 +3165,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -3401,10 +3414,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3421,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3448,8 +3461,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3598,9 +3615,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -3847,10 +3864,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3867,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3894,8 +3911,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3947,9 +3968,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4027,9 +4046,7 @@
     </row>
     <row r="16" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4048,9 +4065,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4297,10 +4314,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4333,7 +4350,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4485,9 +4504,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4733,11 +4752,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4930,9 +4949,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5179,10 +5198,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5375,9 +5394,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5624,10 +5643,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5670,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
@@ -5820,9 +5839,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -6069,10 +6088,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6089,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -6111,7 +6130,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -6263,9 +6284,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -6512,10 +6533,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6532,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -6557,7 +6578,9 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6706,9 +6729,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -6955,10 +6978,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6975,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -7151,9 +7174,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -7400,10 +7423,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7420,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -7596,9 +7619,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
